--- a/data/playground/TestingCombinations.xlsx
+++ b/data/playground/TestingCombinations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2352" yWindow="0" windowWidth="21864" windowHeight="9096" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2352" yWindow="0" windowWidth="21864" windowHeight="9096" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="64">
   <si>
     <t>Amenities</t>
   </si>
@@ -207,13 +207,16 @@
     <t>NADJA</t>
   </si>
   <si>
-    <t>TBA</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>MAX</t>
+  </si>
+  <si>
+    <t>yr</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>NOT</t>
   </si>
 </sst>
 </file>
@@ -322,7 +325,34 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="34">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -347,7 +377,7 @@
           <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="6" tint="0.39997558519241921"/>
         </left>
@@ -360,9 +390,10 @@
         <bottom style="thin">
           <color theme="6" tint="0.39997558519241921"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -388,7 +419,7 @@
           <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="6" tint="0.39997558519241921"/>
         </left>
@@ -401,9 +432,67 @@
         <bottom style="thin">
           <color theme="6" tint="0.39997558519241921"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -429,25 +518,9 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A3:I67" totalsRowShown="0">
-  <autoFilter ref="A3:I67">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="8">
-      <filters>
-        <filter val="NADJA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:I67"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Test No." dataDxfId="3"/>
+    <tableColumn id="1" name="Test No." dataDxfId="33"/>
     <tableColumn id="2" name="Normale Spalten"/>
     <tableColumn id="3" name="Amenities"/>
     <tableColumn id="4" name="Transit tfidf"/>
@@ -462,40 +535,40 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="C2:AH8" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="C2:AH8" totalsRowShown="0" dataDxfId="0">
   <tableColumns count="32">
-    <tableColumn id="1" name="1"/>
-    <tableColumn id="2" name="2"/>
-    <tableColumn id="3" name="3"/>
-    <tableColumn id="4" name="4"/>
-    <tableColumn id="5" name="5"/>
-    <tableColumn id="6" name="6"/>
-    <tableColumn id="7" name="7"/>
-    <tableColumn id="8" name="8"/>
-    <tableColumn id="9" name="9"/>
-    <tableColumn id="10" name="10"/>
-    <tableColumn id="11" name="11"/>
-    <tableColumn id="12" name="12"/>
-    <tableColumn id="13" name="13"/>
-    <tableColumn id="14" name="14"/>
-    <tableColumn id="15" name="15"/>
-    <tableColumn id="16" name="16"/>
-    <tableColumn id="17" name="17"/>
-    <tableColumn id="18" name="18"/>
-    <tableColumn id="19" name="19"/>
-    <tableColumn id="20" name="20"/>
-    <tableColumn id="21" name="21"/>
-    <tableColumn id="22" name="22" dataDxfId="0"/>
-    <tableColumn id="23" name="23" dataDxfId="2"/>
-    <tableColumn id="24" name="24" dataDxfId="1"/>
-    <tableColumn id="25" name="25"/>
-    <tableColumn id="26" name="26"/>
-    <tableColumn id="27" name="27"/>
-    <tableColumn id="28" name="28"/>
-    <tableColumn id="29" name="29"/>
-    <tableColumn id="30" name="30"/>
-    <tableColumn id="31" name="31"/>
-    <tableColumn id="32" name="32"/>
+    <tableColumn id="1" name="1" dataDxfId="32"/>
+    <tableColumn id="2" name="2" dataDxfId="31"/>
+    <tableColumn id="3" name="3" dataDxfId="30"/>
+    <tableColumn id="4" name="4" dataDxfId="29"/>
+    <tableColumn id="5" name="5" dataDxfId="28"/>
+    <tableColumn id="6" name="6" dataDxfId="27"/>
+    <tableColumn id="7" name="7" dataDxfId="26"/>
+    <tableColumn id="8" name="8" dataDxfId="25"/>
+    <tableColumn id="9" name="9" dataDxfId="24"/>
+    <tableColumn id="10" name="10" dataDxfId="23"/>
+    <tableColumn id="11" name="11" dataDxfId="22"/>
+    <tableColumn id="12" name="12" dataDxfId="21"/>
+    <tableColumn id="13" name="13" dataDxfId="20"/>
+    <tableColumn id="14" name="14" dataDxfId="19"/>
+    <tableColumn id="15" name="15" dataDxfId="18"/>
+    <tableColumn id="16" name="16" dataDxfId="17"/>
+    <tableColumn id="17" name="17" dataDxfId="16"/>
+    <tableColumn id="18" name="18" dataDxfId="15"/>
+    <tableColumn id="19" name="19" dataDxfId="14"/>
+    <tableColumn id="20" name="20" dataDxfId="13"/>
+    <tableColumn id="21" name="21" dataDxfId="12"/>
+    <tableColumn id="22" name="22" dataDxfId="11"/>
+    <tableColumn id="23" name="23" dataDxfId="10"/>
+    <tableColumn id="24" name="24" dataDxfId="9"/>
+    <tableColumn id="25" name="25" dataDxfId="8"/>
+    <tableColumn id="26" name="26" dataDxfId="7"/>
+    <tableColumn id="27" name="27" dataDxfId="6"/>
+    <tableColumn id="28" name="28" dataDxfId="5"/>
+    <tableColumn id="29" name="29" dataDxfId="4"/>
+    <tableColumn id="30" name="30" dataDxfId="3"/>
+    <tableColumn id="31" name="31" dataDxfId="2"/>
+    <tableColumn id="32" name="32" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium25" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -825,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -898,7 +971,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -924,7 +997,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -950,7 +1023,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -976,7 +1049,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1002,7 +1075,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1028,7 +1101,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1054,7 +1127,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1080,7 +1153,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1106,7 +1179,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1132,7 +1205,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1158,7 +1231,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1184,7 +1257,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1210,7 +1283,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1236,7 +1309,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1262,7 +1335,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1288,7 +1361,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1314,7 +1387,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1340,7 +1413,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1366,7 +1439,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1392,7 +1465,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1418,7 +1491,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1441,13 +1514,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I24" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1470,13 +1543,13 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1499,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1528,13 +1601,13 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I27" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1557,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1592,7 +1665,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1615,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I30" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1644,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I31" t="s">
         <v>59</v>
@@ -1673,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I32" t="s">
         <v>59</v>
@@ -1702,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I33" t="s">
         <v>59</v>
@@ -1731,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I34" t="s">
         <v>59</v>
@@ -1760,13 +1833,13 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I35" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>33</v>
       </c>
@@ -1790,10 +1863,10 @@
       </c>
       <c r="H36" s="5"/>
       <c r="I36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -1816,10 +1889,10 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -1842,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -1868,10 +1941,10 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -1894,10 +1967,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -1920,10 +1993,10 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -1946,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -1972,10 +2045,10 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -1998,10 +2071,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -2024,10 +2097,10 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -2050,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -2076,10 +2149,10 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -2102,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -2128,10 +2201,10 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -2154,10 +2227,10 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -2180,10 +2253,10 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -2206,10 +2279,10 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -2232,10 +2305,10 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -2258,10 +2331,10 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -2284,10 +2357,10 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -2310,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -2336,10 +2409,10 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -2362,10 +2435,10 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -2388,10 +2461,10 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -2414,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -2440,10 +2513,10 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -2466,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -2492,10 +2565,10 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -2518,10 +2591,10 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -2544,10 +2617,10 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>63</v>
       </c>
@@ -2570,10 +2643,10 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>64</v>
       </c>
@@ -2596,7 +2669,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2617,8 +2690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AH19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2731,105 +2804,162 @@
       <c r="B3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>51</v>
       </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
       <c r="W3" s="7">
-        <v>0.66339999999999999</v>
+        <v>0.66639999999999999</v>
       </c>
       <c r="X3" s="8">
-        <v>0.6431</v>
+        <v>0.64380000000000004</v>
       </c>
       <c r="Y3" s="7">
-        <v>0.66720000000000002</v>
+        <v>0.66639999999999999</v>
       </c>
       <c r="Z3" s="8">
-        <v>0.64529999999999998</v>
+        <v>0.6401</v>
       </c>
       <c r="AA3" s="7">
-        <v>0.65810000000000002</v>
+        <v>0.64980000000000004</v>
       </c>
       <c r="AB3" s="7">
-        <v>0.66039999999999999</v>
+        <v>0.64759999999999995</v>
       </c>
       <c r="AC3" s="7">
-        <v>0.66490000000000005</v>
+        <v>0.65959999999999996</v>
       </c>
       <c r="AD3" s="7">
-        <v>0.65359999999999996</v>
+        <v>0.64229999999999998</v>
       </c>
       <c r="AE3" s="7">
-        <v>0.67700000000000005</v>
+        <v>0.66869999999999996</v>
       </c>
       <c r="AF3" s="7">
-        <v>0.66639999999999999</v>
+        <v>0.65890000000000004</v>
       </c>
       <c r="AG3" s="7">
-        <v>0.68149999999999999</v>
+        <v>0.67469999999999997</v>
       </c>
       <c r="AH3" s="7">
-        <v>0.6845</v>
+        <v>0.67320000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>52</v>
       </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
       <c r="W4" s="7">
-        <v>0.59340000000000004</v>
+        <v>0.55120000000000002</v>
       </c>
       <c r="X4" s="9">
-        <v>0.59109999999999996</v>
+        <v>0.55120000000000002</v>
       </c>
       <c r="Y4" s="7">
-        <v>0.59040000000000004</v>
+        <v>0.55049999999999999</v>
       </c>
       <c r="Z4" s="9">
-        <v>0.59409999999999996</v>
+        <v>0.55049999999999999</v>
       </c>
       <c r="AA4" s="7">
-        <v>0.59409999999999996</v>
+        <v>0.55120000000000002</v>
       </c>
       <c r="AB4" s="7">
-        <v>0.59489999999999998</v>
+        <v>0.55120000000000002</v>
       </c>
       <c r="AC4" s="7">
-        <v>0.59040000000000004</v>
+        <v>0.55120000000000002</v>
       </c>
       <c r="AD4" s="7">
-        <v>0.58730000000000004</v>
+        <v>0.55120000000000002</v>
       </c>
       <c r="AE4" s="7">
-        <v>0.58730000000000004</v>
+        <v>0.55120000000000002</v>
       </c>
       <c r="AF4" s="7">
-        <v>0.59560000000000002</v>
+        <v>0.55049999999999999</v>
       </c>
       <c r="AG4" s="7">
-        <v>0.59489999999999998</v>
+        <v>0.55120000000000002</v>
       </c>
       <c r="AH4" s="7">
-        <v>0.59260000000000002</v>
+        <v>0.55120000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>55</v>
       </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
       <c r="W5" s="7">
         <v>0.72670000000000001</v>
       </c>
       <c r="X5" s="8">
-        <v>0.72350000000000003</v>
+        <v>0.72360000000000002</v>
       </c>
       <c r="Y5" s="7">
-        <v>0.72670000000000001</v>
+        <v>0.72589999999999999</v>
       </c>
       <c r="Z5" s="8">
         <v>0.72289999999999999</v>
@@ -2863,94 +2993,152 @@
       <c r="B6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>53</v>
       </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
       <c r="W6" s="7">
-        <v>0.60019999999999996</v>
+        <v>0.53159999999999996</v>
       </c>
       <c r="X6" s="9">
-        <v>0.61519999999999997</v>
+        <v>0.52639999999999998</v>
       </c>
       <c r="Y6" s="7">
-        <v>0.61219999999999997</v>
+        <v>0.52710000000000001</v>
       </c>
       <c r="Z6" s="9">
-        <v>0.61970000000000003</v>
+        <v>0.52259999999999995</v>
       </c>
       <c r="AA6" s="7">
-        <v>0.60470000000000002</v>
+        <v>0.53239999999999998</v>
       </c>
       <c r="AB6" s="7">
-        <v>0.61219999999999997</v>
+        <v>0.52639999999999998</v>
       </c>
       <c r="AC6" s="7">
-        <v>0.61370000000000002</v>
+        <v>0.52859999999999996</v>
       </c>
       <c r="AD6" s="7">
-        <v>0.62350000000000005</v>
+        <v>0.52559999999999996</v>
       </c>
       <c r="AE6" s="7">
-        <v>0.61670000000000003</v>
+        <v>0.52710000000000001</v>
       </c>
       <c r="AF6" s="7">
-        <v>0.62949999999999995</v>
+        <v>0.52180000000000004</v>
       </c>
       <c r="AG6" s="7">
-        <v>0.62119999999999997</v>
+        <v>0.52410000000000001</v>
       </c>
       <c r="AH6" s="7">
-        <v>0.63249999999999995</v>
+        <v>0.52259999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>54</v>
       </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
       <c r="W7" s="7">
-        <v>0.52259999999999995</v>
+        <v>0.52710000000000001</v>
       </c>
       <c r="X7" s="8">
-        <v>0.52259999999999995</v>
+        <v>0.52710000000000001</v>
       </c>
       <c r="Y7" s="7">
-        <v>0.52259999999999995</v>
+        <v>0.52710000000000001</v>
       </c>
       <c r="Z7" s="8">
-        <v>0.52259999999999995</v>
+        <v>0.52710000000000001</v>
       </c>
       <c r="AA7" s="7">
-        <v>0.52259999999999995</v>
+        <v>0.52710000000000001</v>
       </c>
       <c r="AB7" s="7">
-        <v>0.52259999999999995</v>
+        <v>0.52710000000000001</v>
       </c>
       <c r="AC7" s="7">
-        <v>0.52259999999999995</v>
+        <v>0.52710000000000001</v>
       </c>
       <c r="AD7" s="7">
-        <v>0.52259999999999995</v>
+        <v>0.52710000000000001</v>
       </c>
       <c r="AE7" s="7">
-        <v>0.52259999999999995</v>
+        <v>0.52710000000000001</v>
       </c>
       <c r="AF7" s="7">
-        <v>0.52259999999999995</v>
+        <v>0.52710000000000001</v>
       </c>
       <c r="AG7" s="7">
-        <v>0.52259999999999995</v>
+        <v>0.52710000000000001</v>
       </c>
       <c r="AH7" s="7">
-        <v>0.52259999999999995</v>
+        <v>0.52710000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>62</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
       <c r="W8" s="7">
         <v>0.72670000000000001</v>
       </c>
@@ -2958,7 +3146,7 @@
         <v>0.72360000000000002</v>
       </c>
       <c r="Y8" s="7">
-        <v>0.72260000000000002</v>
+        <v>0.72589999999999999</v>
       </c>
       <c r="Z8" s="9">
         <v>0.72289999999999999</v>
@@ -2966,8 +3154,8 @@
       <c r="AA8" s="7">
         <v>0.72670000000000001</v>
       </c>
-      <c r="AB8">
-        <v>71.36</v>
+      <c r="AB8" s="7">
+        <v>0.72360000000000002</v>
       </c>
       <c r="AC8" s="7">
         <v>0.72670000000000001</v>
@@ -2984,13 +3172,14 @@
       <c r="AG8" s="7">
         <v>0.72670000000000001</v>
       </c>
-      <c r="AH8">
-        <v>72.36</v>
+      <c r="AH8" s="7">
+        <v>0.72360000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="X9" s="11"/>
       <c r="Y9" s="11"/>
+      <c r="AH9" s="7"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="X10" s="12"/>
@@ -3034,6 +3223,18 @@
       <c r="Y19" s="11"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C6:AH6">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
